--- a/03.DataManipulation/data/midwest.xlsx
+++ b/03.DataManipulation/data/midwest.xlsx
@@ -10,6 +10,7 @@
     <sheet name="midwest" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1502,7 +1503,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/03.DataManipulation/data/midwest.xlsx
+++ b/03.DataManipulation/data/midwest.xlsx
@@ -1502,7 +1502,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
